--- a/biology/Médecine/Élastométrie_impulsionnelle/Élastométrie_impulsionnelle.xlsx
+++ b/biology/Médecine/Élastométrie_impulsionnelle/Élastométrie_impulsionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lastom%C3%A9trie_impulsionnelle</t>
+          <t>Élastométrie_impulsionnelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'élastométrie impulsionnelle (un développement breveté de l'élastographie) a pour principale application clinique l'évaluation non-invasive de la fibrose du foie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lastom%C3%A9trie_impulsionnelle</t>
+          <t>Élastométrie_impulsionnelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principes biophysiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principe utilisé est simple : plus le foie est dur, plus la fibrose est importante. Cette relation entre la dureté du foie et le degré de fibrose est à rapprocher de la palpation du médecin.
 C'est l'élasticité, fonction de l'état pathologique des tissus, qui est utilisée comme paramètre-clé pour analyser cette dureté.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lastom%C3%A9trie_impulsionnelle</t>
+          <t>Élastométrie_impulsionnelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour mesurer cette élasticité du foie, l'élastomètre impulsionnel engendre une petite vibration à la surface de la peau qui va se propager dans le foie. Cette vibration est obtenue par un vibreur situé sur une sonde d'échographie[1], [2].
-Cette technique est validée pour l'évaluation de la fibrose dans les hépatites B et C, la maladie alcoolique du foie, la NASH et les hépatopathies biliaires[réf. nécessaire]. Elle devrait permettre d'évaluer également la stéatose hépatique, qui modifie l'atténuation des ultrasons et donc les résultats lorsqu'elle est associée à la fibrose ; cette indication n'est pas validée en 2012[3],[4].
-Le dispositif pourrait également être utilisé pour évaluer et surveiller les patients porteurs d'une hypertension portale[5],[6].
-À titre d'exemple, dans l'hépatite chronique C une valeur &gt; 7 kPa est associé à un score Metavir supérieur ou égal à F2 et une valeur &gt; 14 kPa à un score F4[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour mesurer cette élasticité du foie, l'élastomètre impulsionnel engendre une petite vibration à la surface de la peau qui va se propager dans le foie. Cette vibration est obtenue par un vibreur situé sur une sonde d'échographie, .
+Cette technique est validée pour l'évaluation de la fibrose dans les hépatites B et C, la maladie alcoolique du foie, la NASH et les hépatopathies biliaires[réf. nécessaire]. Elle devrait permettre d'évaluer également la stéatose hépatique, qui modifie l'atténuation des ultrasons et donc les résultats lorsqu'elle est associée à la fibrose ; cette indication n'est pas validée en 2012,.
+Le dispositif pourrait également être utilisé pour évaluer et surveiller les patients porteurs d'une hypertension portale,.
+À titre d'exemple, dans l'hépatite chronique C une valeur &gt; 7 kPa est associé à un score Metavir supérieur ou égal à F2 et une valeur &gt; 14 kPa à un score F4.
 </t>
         </is>
       </c>
